--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H2">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I2">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J2">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>56.15067334405349</v>
+        <v>1.3299129795725</v>
       </c>
       <c r="R2">
-        <v>224.602693376214</v>
+        <v>7.979477877434999</v>
       </c>
       <c r="S2">
-        <v>0.2318545808655118</v>
+        <v>0.00944923465221296</v>
       </c>
       <c r="T2">
-        <v>0.1710838319734771</v>
+        <v>0.01083715497320612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H3">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I3">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J3">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
-        <v>31.49814617027566</v>
+        <v>0.7557292460418888</v>
       </c>
       <c r="R3">
-        <v>188.988877021654</v>
+        <v>6.801563214377</v>
       </c>
       <c r="S3">
-        <v>0.1300605859809034</v>
+        <v>0.005369571610381066</v>
       </c>
       <c r="T3">
-        <v>0.1439561600762751</v>
+        <v>0.009237395697618679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H4">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I4">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J4">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>23.56020051327367</v>
+        <v>1.136753517755444</v>
       </c>
       <c r="R4">
-        <v>141.361203079642</v>
+        <v>10.230781659799</v>
       </c>
       <c r="S4">
-        <v>0.09728361370916631</v>
+        <v>0.008076807201665601</v>
       </c>
       <c r="T4">
-        <v>0.1076773210138506</v>
+        <v>0.01389471442208154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H5">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I5">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J5">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>29.800073747667</v>
+        <v>0.5584847537456666</v>
       </c>
       <c r="R5">
-        <v>119.200294990668</v>
+        <v>3.350908522474</v>
       </c>
       <c r="S5">
-        <v>0.123048989389517</v>
+        <v>0.003968119394941575</v>
       </c>
       <c r="T5">
-        <v>0.09079696655824721</v>
+        <v>0.004550963799496252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H6">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I6">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J6">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>41.60981429490266</v>
+        <v>0.21910099413</v>
       </c>
       <c r="R6">
-        <v>249.658885769416</v>
+        <v>1.97190894717</v>
       </c>
       <c r="S6">
-        <v>0.1718131854648209</v>
+        <v>0.001556745996067362</v>
       </c>
       <c r="T6">
-        <v>0.1901695755362819</v>
+        <v>0.002678105407618769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H7">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I7">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J7">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>42.50108956288467</v>
+        <v>0.4446403992313334</v>
       </c>
       <c r="R7">
-        <v>255.006537377308</v>
+        <v>4.001763593082</v>
       </c>
       <c r="S7">
-        <v>0.1754933951824778</v>
+        <v>0.003159237884527673</v>
       </c>
       <c r="T7">
-        <v>0.1942429760613808</v>
+        <v>0.00543490851036789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H8">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I8">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J8">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>4.2553409016645</v>
+        <v>40.78297202602875</v>
       </c>
       <c r="R8">
-        <v>25.532045409987</v>
+        <v>163.131888104115</v>
       </c>
       <c r="S8">
-        <v>0.01757094300810869</v>
+        <v>0.2897692393471181</v>
       </c>
       <c r="T8">
-        <v>0.01944820919642631</v>
+        <v>0.221554038949764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H9">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I9">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J9">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
-        <v>2.387065759723</v>
+        <v>23.17511384127217</v>
       </c>
       <c r="R9">
-        <v>21.483591837507</v>
+        <v>139.050683047633</v>
       </c>
       <c r="S9">
-        <v>0.009856553773234545</v>
+        <v>0.164662720149045</v>
       </c>
       <c r="T9">
-        <v>0.01636443072371481</v>
+        <v>0.1888486721140908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H10">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I10">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J10">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>1.785493902829</v>
+        <v>34.85956421751183</v>
       </c>
       <c r="R10">
-        <v>16.069445125461</v>
+        <v>209.157385305071</v>
       </c>
       <c r="S10">
-        <v>0.007372573040073539</v>
+        <v>0.2476825230106711</v>
       </c>
       <c r="T10">
-        <v>0.01224037970527085</v>
+        <v>0.2840625706540913</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H11">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I11">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J11">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>2.258378486649</v>
+        <v>17.1264349162865</v>
       </c>
       <c r="R11">
-        <v>13.550270919894</v>
+        <v>68.50573966514601</v>
       </c>
       <c r="S11">
-        <v>0.009325184655388377</v>
+        <v>0.1216859334148804</v>
       </c>
       <c r="T11">
-        <v>0.01032148029218489</v>
+        <v>0.09303958588628197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H12">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I12">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J12">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>3.153371707492</v>
+        <v>6.718928119155001</v>
       </c>
       <c r="R12">
-        <v>28.380345367428</v>
+        <v>40.31356871493</v>
       </c>
       <c r="S12">
-        <v>0.01302074635995704</v>
+        <v>0.0477390095325304</v>
       </c>
       <c r="T12">
-        <v>0.02161780949820304</v>
+        <v>0.05475099980189763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H13">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I13">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J13">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>3.220916402446</v>
+        <v>13.635295874263</v>
       </c>
       <c r="R13">
-        <v>28.988247622014</v>
+        <v>81.811775245578</v>
       </c>
       <c r="S13">
-        <v>0.01329964857084045</v>
+        <v>0.09688085780595881</v>
       </c>
       <c r="T13">
-        <v>0.02208085936468742</v>
+        <v>0.111110889783485</v>
       </c>
     </row>
   </sheetData>
